--- a/ZohoCRM/data/testscript.xlsx
+++ b/ZohoCRM/data/testscript.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="16245" windowHeight="3210"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="taskpage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:B2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>url</t>
   </si>
@@ -35,7 +37,7 @@
     <t>http://localhost/login.do</t>
   </si>
   <si>
-    <t>userName</t>
+    <t>username</t>
   </si>
   <si>
     <t>admin</t>
@@ -45,6 +47,18 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Dhaiwik</t>
+  </si>
+  <si>
+    <t>CustomerDesc</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1217,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1243,4 +1257,40 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="20.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/ZohoCRM/data/testscript.xlsx
+++ b/ZohoCRM/data/testscript.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16245" windowHeight="3210"/>
+    <workbookView windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="taskpage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1:B2"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>url</t>
   </si>
@@ -52,13 +51,49 @@
     <t>CustomerName</t>
   </si>
   <si>
-    <t>Dhaiwik</t>
-  </si>
-  <si>
     <t>CustomerDesc</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>Dhaiw</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>Dhai</t>
+  </si>
+  <si>
+    <t>glow</t>
+  </si>
+  <si>
+    <t>Dhaiwik4</t>
+  </si>
+  <si>
+    <t>good 4</t>
+  </si>
+  <si>
+    <t>Dhaiwik5</t>
+  </si>
+  <si>
+    <t>good 5</t>
+  </si>
+  <si>
+    <t>Dhaiwik6</t>
+  </si>
+  <si>
+    <t>good 6</t>
+  </si>
+  <si>
+    <t>Dhaiwik7</t>
+  </si>
+  <si>
+    <t>good 7</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1251,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1262,13 +1297,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.4285714285714" customWidth="1"/>
   </cols>
@@ -1289,6 +1324,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
